--- a/src/data/test/test.xlsx
+++ b/src/data/test/test.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>品名及规格</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,114 +388,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>类别</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2112</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/data/test/test.xlsx
+++ b/src/data/test/test.xlsx
@@ -1,43 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+  <si>
+    <t>品名及规格</t>
+  </si>
+  <si>
+    <t>海天海鲜酱油1.75L</t>
+  </si>
+  <si>
+    <t>海天老抽王1.9L</t>
+  </si>
+  <si>
+    <t>吉品丰辣椒片408</t>
+  </si>
+  <si>
+    <t>珍选捞汁1.8L</t>
+  </si>
+  <si>
+    <t>天荣牌红油郸县豆鹏200</t>
+  </si>
+  <si>
+    <t>王守义十三香45g</t>
+  </si>
+  <si>
+    <t>亚龙口粉丝400克</t>
+  </si>
+  <si>
+    <t>吉品丰芝麻30g</t>
+  </si>
+  <si>
+    <t>吉品丰政然308</t>
+  </si>
+  <si>
+    <t>星南香精制鸡蛋挂面500</t>
+  </si>
+  <si>
+    <t>吉品丰辣椒粉40g</t>
+  </si>
+  <si>
+    <t>永发粉条1000g</t>
+  </si>
+  <si>
+    <t>香其酱120g</t>
+  </si>
+  <si>
+    <t>秋木耳500g</t>
+  </si>
+  <si>
+    <t>25.86</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>4.97</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>桶</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>厅</t>
+  </si>
+  <si>
+    <t>王守义麻辣鲜调味料60</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>49.7</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>24.87</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>盒</t>
+  </si>
+  <si>
+    <t>61.69</t>
+  </si>
+  <si>
+    <t>199重庆火锅浓缩底科400袋</t>
+  </si>
+  <si>
+    <t>中盐精制盐未加碘400g</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>66.6</t>
+  </si>
+  <si>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>57.6</t>
+  </si>
+  <si>
+    <t>54.7</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>49.74</t>
+  </si>
+  <si>
+    <t>18.15</t>
+  </si>
+  <si>
+    <t>44.06</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>57.2</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>10.94</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>123.38</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>12.93</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +231,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,114 +530,320 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>类别</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>金额</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>单价</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>单位</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2112</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>